--- a/ULS_Bharani/TestData/ijaraTestData.xlsx
+++ b/ULS_Bharani/TestData/ijaraTestData.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="75" windowWidth="28755" windowHeight="12600"/>
+    <workbookView xWindow="0" yWindow="75" windowWidth="28755" windowHeight="12600" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="ijara_LoginCredentials" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="TWCommodityPurchaseAppDetails" sheetId="2" r:id="rId2"/>
+    <sheet name="TWCommodityPurchaseCustoDetails" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="47">
   <si>
     <t>UserName</t>
   </si>
@@ -34,6 +34,129 @@
   </si>
   <si>
     <t>0343</t>
+  </si>
+  <si>
+    <t>userType02</t>
+  </si>
+  <si>
+    <t>in02040</t>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>TawarruqNewAppplicationIdentificationDetails</t>
+  </si>
+  <si>
+    <t>TestCaseID</t>
+  </si>
+  <si>
+    <t>DataSet ID</t>
+  </si>
+  <si>
+    <t>Ref No</t>
+  </si>
+  <si>
+    <t>Classification</t>
+  </si>
+  <si>
+    <t>Product</t>
+  </si>
+  <si>
+    <t>Total Finance Amt</t>
+  </si>
+  <si>
+    <t>Declared Monthly Income</t>
+  </si>
+  <si>
+    <t>Sourcing Channel</t>
+  </si>
+  <si>
+    <t>Business Center Code</t>
+  </si>
+  <si>
+    <t>Servicing Type</t>
+  </si>
+  <si>
+    <t>Region</t>
+  </si>
+  <si>
+    <t>Servicing Branch</t>
+  </si>
+  <si>
+    <t>Closing Staff</t>
+  </si>
+  <si>
+    <t>AT_ADC_01</t>
+  </si>
+  <si>
+    <t>DS_AT_ADC_01</t>
+  </si>
+  <si>
+    <t>Financier</t>
+  </si>
+  <si>
+    <t>Azentio Main Branch</t>
+  </si>
+  <si>
+    <t>AT_ADC_02</t>
+  </si>
+  <si>
+    <t>DS_AT_ADC_02</t>
+  </si>
+  <si>
+    <t>AT_ADC_03</t>
+  </si>
+  <si>
+    <t>DS_AT_ADC_03</t>
+  </si>
+  <si>
+    <t>AT_ADC_05</t>
+  </si>
+  <si>
+    <t>DS_AT_ADC_05</t>
+  </si>
+  <si>
+    <t>AT_ADC_06</t>
+  </si>
+  <si>
+    <t>DS_AT_ADC_06</t>
+  </si>
+  <si>
+    <t>userType03</t>
+  </si>
+  <si>
+    <t>354</t>
+  </si>
+  <si>
+    <t>Tawarooq Retail Loan</t>
+  </si>
+  <si>
+    <t>Tawarooq Retail Loan-Tawaroow Retail Sub product</t>
+  </si>
+  <si>
+    <t>Branch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Business Center-Corporate Banking </t>
+  </si>
+  <si>
+    <t>Mumbai</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Pranav Karhade</t>
+  </si>
+  <si>
+    <t>AT_TW_CD_01_01</t>
+  </si>
+  <si>
+    <t>DS_AT_TW_CD_01_01</t>
+  </si>
+  <si>
+    <t>AT_TW_CD_01_02</t>
+  </si>
+  <si>
+    <t>DS_AT_TW_CD_01_02</t>
   </si>
 </sst>
 </file>
@@ -90,11 +213,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -389,19 +513,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="19.28515625" customWidth="1"/>
     <col min="2" max="2" width="16.42578125" customWidth="1"/>
+    <col min="3" max="3" width="17.85546875" customWidth="1"/>
+    <col min="4" max="4" width="76.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
@@ -412,7 +538,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -420,12 +546,39 @@
         <v>5</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="C3" r:id="rId2" display="Admin@1"/>
+    <hyperlink ref="C4" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -433,24 +586,210 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:M6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="19.42578125" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" customWidth="1"/>
+    <col min="4" max="4" width="27" customWidth="1"/>
+    <col min="5" max="5" width="24.28515625" customWidth="1"/>
+    <col min="6" max="6" width="16.5703125" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" customWidth="1"/>
+    <col min="8" max="8" width="16.85546875" customWidth="1"/>
+    <col min="9" max="9" width="25.5703125" customWidth="1"/>
+    <col min="10" max="10" width="17.7109375" customWidth="1"/>
+    <col min="11" max="12" width="16" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2">
+        <v>3061</v>
+      </c>
+      <c r="D2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" s="4">
+        <v>1500000</v>
+      </c>
+      <c r="G2" s="4">
+        <v>50000</v>
+      </c>
+      <c r="H2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3">
+        <v>3061</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4">
+        <v>3061</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5">
+        <v>3061</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6">
+        <v>3061</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="18.42578125" customWidth="1"/>
+    <col min="2" max="2" width="23.28515625" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" customWidth="1"/>
+    <col min="6" max="6" width="21.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2">
+        <v>3611</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3">
+        <v>3611</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/ULS_Bharani/TestData/ijaraTestData.xlsx
+++ b/ULS_Bharani/TestData/ijaraTestData.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="75" windowWidth="28755" windowHeight="12600" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="75" windowWidth="28755" windowHeight="12600" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="ijara_LoginCredentials" sheetId="1" r:id="rId1"/>
     <sheet name="TWCommodityPurchaseAppDetails" sheetId="2" r:id="rId2"/>
     <sheet name="TWCommodityPurchaseCustoDetails" sheetId="3" r:id="rId3"/>
+    <sheet name="ALoanAppdataEntryContactDetails" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="77">
   <si>
     <t>UserName</t>
   </si>
@@ -157,6 +158,96 @@
   </si>
   <si>
     <t>DS_AT_TW_CD_01_02</t>
+  </si>
+  <si>
+    <t>userType04</t>
+  </si>
+  <si>
+    <t>MurabhaOffering-offerdetails</t>
+  </si>
+  <si>
+    <t>0378</t>
+  </si>
+  <si>
+    <t>TestCase ID</t>
+  </si>
+  <si>
+    <t>Data Set ID</t>
+  </si>
+  <si>
+    <t>record_reference_number</t>
+  </si>
+  <si>
+    <t>phone type</t>
+  </si>
+  <si>
+    <t>phone number</t>
+  </si>
+  <si>
+    <t>consent for phone contact</t>
+  </si>
+  <si>
+    <t>prefered phone contact type</t>
+  </si>
+  <si>
+    <t>prefered time for contact</t>
+  </si>
+  <si>
+    <t>email type</t>
+  </si>
+  <si>
+    <t>email id</t>
+  </si>
+  <si>
+    <t>character input</t>
+  </si>
+  <si>
+    <t>invalid  mail id</t>
+  </si>
+  <si>
+    <t>invalid mobile number</t>
+  </si>
+  <si>
+    <t>special character input</t>
+  </si>
+  <si>
+    <t>AT_AL_APD_CD_03</t>
+  </si>
+  <si>
+    <t>DS_AT_AL_APD_CD_03</t>
+  </si>
+  <si>
+    <t>AT_AL_APD_CD_04</t>
+  </si>
+  <si>
+    <t>DS_AT_AL_APD_CD_04</t>
+  </si>
+  <si>
+    <t>AT_AL_APD_CD_05</t>
+  </si>
+  <si>
+    <t>DS_AT_AL_APD_CD_05</t>
+  </si>
+  <si>
+    <t>abcdefhijk</t>
+  </si>
+  <si>
+    <t>123abc</t>
+  </si>
+  <si>
+    <t>!@#$!@#$%^</t>
+  </si>
+  <si>
+    <t>v0169</t>
+  </si>
+  <si>
+    <t>AutoLoanAppdataEntryContactDetails</t>
+  </si>
+  <si>
+    <t>userType05</t>
+  </si>
+  <si>
+    <t>9632145870</t>
   </si>
 </sst>
 </file>
@@ -213,12 +304,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -513,10 +605,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -574,11 +666,40 @@
         <v>4</v>
       </c>
     </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>75</v>
+      </c>
+      <c r="B6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" t="s">
+        <v>74</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1"/>
     <hyperlink ref="C3" r:id="rId2" display="Admin@1"/>
     <hyperlink ref="C4" r:id="rId3"/>
+    <hyperlink ref="C5" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -743,8 +864,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -792,4 +913,129 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:N4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="19.5703125" customWidth="1"/>
+    <col min="2" max="2" width="24.5703125" customWidth="1"/>
+    <col min="3" max="3" width="25.7109375" customWidth="1"/>
+    <col min="4" max="4" width="19" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" customWidth="1"/>
+    <col min="6" max="6" width="23.5703125" customWidth="1"/>
+    <col min="7" max="7" width="26.42578125" customWidth="1"/>
+    <col min="8" max="8" width="26.28515625" customWidth="1"/>
+    <col min="9" max="9" width="15.5703125" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" customWidth="1"/>
+    <col min="12" max="12" width="15.7109375" customWidth="1"/>
+    <col min="13" max="13" width="14.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14">
+      <c r="A1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I1" t="s">
+        <v>58</v>
+      </c>
+      <c r="J1" t="s">
+        <v>59</v>
+      </c>
+      <c r="K1" t="s">
+        <v>60</v>
+      </c>
+      <c r="L1" t="s">
+        <v>61</v>
+      </c>
+      <c r="M1" t="s">
+        <v>62</v>
+      </c>
+      <c r="N1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2">
+        <v>2971</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3">
+        <v>2971</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4">
+        <v>2971</v>
+      </c>
+      <c r="K4" t="s">
+        <v>70</v>
+      </c>
+      <c r="L4" t="s">
+        <v>71</v>
+      </c>
+      <c r="M4">
+        <v>-997331953</v>
+      </c>
+      <c r="N4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="E2" numberStoredAsText="1"/>
+  </ignoredErrors>
+</worksheet>
 </file>